--- a/data/match_results2n.xlsx
+++ b/data/match_results2n.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CProject\ImageProcessing\Trend-similarity\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C98C09-A634-4686-95C1-9B98B27BFFC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF59564-AD6C-457F-B0F0-32871B21C5D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="16764" windowHeight="10044" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3684" yWindow="1428" windowWidth="16764" windowHeight="10044" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="552">
   <si>
     <t>主数据ID</t>
   </si>
@@ -1631,6 +1631,66 @@
   </si>
   <si>
     <t>mean(15.27); trend(7.71)</t>
+  </si>
+  <si>
+    <t>2025/04/27-276VS72-62</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025/04/28-76VS78-60</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025/05/02-4852VS109-60</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025/05/03-13VS183-60</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025/05/03-78VS86-60</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025/05/04-84VS73-60</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025/05/05-2783VS51-60</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025/05/11-76VS79-61</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025/05/11-174VS14-60</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025/05/15-131VS63-60</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025/05/15-64VS54-60</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025/05/16-15VS32-68</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025/05/17-1730VS796-62</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025/05/18-29VS174-60</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025/05/25-165VS29-67</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2027,8 +2087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F322"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B312" sqref="B312"/>
+    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
+      <selection activeCell="A312" sqref="A312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2274,7 +2334,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>537</v>
       </c>
       <c r="B13" t="s">
         <v>28</v>
@@ -2734,7 +2794,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>75</v>
+        <v>538</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>76</v>
@@ -2874,7 +2934,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>87</v>
+        <v>539</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>88</v>
@@ -3134,7 +3194,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>112</v>
+        <v>540</v>
       </c>
       <c r="B56" t="s">
         <v>113</v>
@@ -3771,7 +3831,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>161</v>
+        <v>541</v>
       </c>
       <c r="B88" t="s">
         <v>162</v>
@@ -4345,7 +4405,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>215</v>
+        <v>542</v>
       </c>
       <c r="B117" t="s">
         <v>216</v>
@@ -4465,7 +4525,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>224</v>
+        <v>543</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>225</v>
@@ -5796,7 +5856,7 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>326</v>
+        <v>545</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>327</v>
@@ -6056,7 +6116,7 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>349</v>
+        <v>544</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>350</v>
@@ -6756,7 +6816,7 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>401</v>
+        <v>546</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>402</v>
@@ -6990,7 +7050,7 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>414</v>
+        <v>547</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>415</v>
@@ -7110,7 +7170,7 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>421</v>
+        <v>548</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>422</v>
@@ -7170,7 +7230,7 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>425</v>
+        <v>549</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>426</v>
@@ -7347,7 +7407,7 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>439</v>
+        <v>550</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>443</v>
@@ -8227,7 +8287,7 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>518</v>
+        <v>551</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>519</v>
